--- a/main.xlsx
+++ b/main.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B92F82-54F0-4469-AAB0-846B8D43CE1B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6B6F8569-65CA-4B43-847E-8DA22154077D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,13 +46,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>20180614 易拉宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>20180609 展板3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20180609 展板4</t>
-  </si>
-  <si>
-    <t>20180614 易拉宝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +383,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -414,15 +416,15 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
